--- a/TwitterCucumber/Fixture/Book2.xlsx
+++ b/TwitterCucumber/Fixture/Book2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>213</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>https://twitter.com/</t>
-  </si>
-  <si>
-    <t>sonirich01@gmail.com</t>
-  </si>
-  <si>
-    <t>Manu@123</t>
   </si>
   <si>
     <t>UserName_ID</t>
@@ -416,7 +410,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,13 +439,13 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -464,20 +458,16 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -486,8 +476,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TwitterCucumber/Fixture/Book2.xlsx
+++ b/TwitterCucumber/Fixture/Book2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>213</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Log in</t>
+  </si>
+  <si>
+    <t>sonirich01@gmail.com</t>
+  </si>
+  <si>
+    <t>Manu@123</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,8 +464,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -476,6 +486,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
